--- a/analysis/results/Q1/beta_diversity/supplements_beta_diversity_colon.xlsx
+++ b/analysis/results/Q1/beta_diversity/supplements_beta_diversity_colon.xlsx
@@ -13,7 +13,9 @@
     <sheet name="jaccard ASV terminal_ileum" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="bray genus colon" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="jaccard genus colon" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="aitchison genus colon" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="aitchison ASV colon" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="bray ASV colon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="jaccard ASV colon" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -679,6 +681,280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.45259664565475</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.30166822676147</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0149627039160283</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.69461184477029</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.31187052676801</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00704434421245962</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.72106852995324</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.73427943002969</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0184705944128916</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.00491351031766</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.1513973109919</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0122314964775301</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.18515301932342</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.6489506784257</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0173972928024265</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.9327960521629</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.2881565886002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01952156489551</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.906018113797661</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.33553061908463</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00552739921720547</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.862339991862987</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.19860151958886</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00358466733818677</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.29085547370209</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.39280270926176</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00640753259674901</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -1817,13 +2093,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.09044267364806</v>
+        <v>2.11894409894076</v>
       </c>
       <c r="D2" t="n">
-        <v>9.63621722501168</v>
+        <v>10.7319790166012</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0225229524816264</v>
+        <v>0.0244954865074334</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1843,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9475758596212</v>
+        <v>1.30656108791149</v>
       </c>
       <c r="D3" t="n">
-        <v>5.9724839468969</v>
+        <v>6.2390448789728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00962878520941785</v>
+        <v>0.00974892884134038</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -1869,13 +2145,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.78774524514324</v>
+        <v>3.28604724747184</v>
       </c>
       <c r="D4" t="n">
-        <v>15.4234901874747</v>
+        <v>17.1500473134182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0286556558182432</v>
+        <v>0.0309669432538226</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
@@ -1895,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.38255045604524</v>
+        <v>2.86237185329381</v>
       </c>
       <c r="D5" t="n">
-        <v>7.42895959202547</v>
+        <v>14.4972746957388</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0173638783738512</v>
+        <v>0.0330896842189775</v>
       </c>
       <c r="F5" t="n">
         <v>0.001</v>
@@ -1921,13 +2197,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.32754952839932</v>
+        <v>6.61829705826324</v>
       </c>
       <c r="D6" t="n">
-        <v>16.3375941827764</v>
+        <v>31.6034609869502</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0263393232402613</v>
+        <v>0.0493825414431993</v>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
@@ -1947,13 +2223,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.9123260043815</v>
+        <v>5.49559171926754</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8248210894497</v>
+        <v>28.681772020527</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0294012976967304</v>
+        <v>0.0517891752918849</v>
       </c>
       <c r="F7" t="n">
         <v>0.001</v>
@@ -1973,22 +2249,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.900748445842193</v>
+        <v>0.782597013837576</v>
       </c>
       <c r="D8" t="n">
-        <v>2.82113323832581</v>
+        <v>3.99275353940361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00656459821002101</v>
+        <v>0.00904700345931681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06</v>
+        <v>0.018</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1999,19 +2275,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.829809800308965</v>
+        <v>0.561932676247858</v>
       </c>
       <c r="D9" t="n">
-        <v>2.55133878996168</v>
+        <v>2.69092143487587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00410256693847038</v>
+        <v>0.00419287067788096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.131</v>
+        <v>0.112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.131</v>
+        <v>0.112</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -2025,19 +2301,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.36191323452926</v>
+        <v>0.997915274003017</v>
       </c>
       <c r="D10" t="n">
-        <v>4.4169060266744</v>
+        <v>5.25176079197709</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00815133531646655</v>
+        <v>0.00940412091942663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -2091,22 +2367,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.45259664565475</v>
+        <v>2.22476097789897</v>
       </c>
       <c r="D2" t="n">
-        <v>6.30166822676147</v>
+        <v>7.84406387888199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0149627039160283</v>
+        <v>0.018238834214225</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2117,22 +2393,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.69461184477029</v>
+        <v>1.38230384160983</v>
       </c>
       <c r="D3" t="n">
-        <v>4.31187052676801</v>
+        <v>4.67968640192132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00704434421245962</v>
+        <v>0.00746015197902323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2143,22 +2419,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3.72106852995324</v>
+        <v>3.37060978669143</v>
       </c>
       <c r="D4" t="n">
-        <v>9.73427943002969</v>
+        <v>12.0438943193673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0184705944128916</v>
+        <v>0.0223023110759646</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2169,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.00491351031766</v>
+        <v>3.01264167591908</v>
       </c>
       <c r="D5" t="n">
-        <v>5.1513973109919</v>
+        <v>10.6219742187354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0122314964775301</v>
+        <v>0.0246979664870985</v>
       </c>
       <c r="F5" t="n">
         <v>0.001</v>
@@ -2195,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.18515301932342</v>
+        <v>6.47428561716694</v>
       </c>
       <c r="D6" t="n">
-        <v>10.6489506784257</v>
+        <v>21.9182103476805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0173972928024265</v>
+        <v>0.0349410550747082</v>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
@@ -2221,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.9327960521629</v>
+        <v>5.59546422291533</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2881565886002</v>
+        <v>19.9937649367427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01952156489551</v>
+        <v>0.0370235036421653</v>
       </c>
       <c r="F7" t="n">
         <v>0.001</v>
@@ -2247,22 +2523,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.906018113797661</v>
+        <v>0.93915782093088</v>
       </c>
       <c r="D8" t="n">
-        <v>2.33553061908463</v>
+        <v>3.33019493716064</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00552739921720547</v>
+        <v>0.00769931869855414</v>
       </c>
       <c r="F8" t="n">
-        <v>0.086</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0.129</v>
+        <v>0.015</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -2273,19 +2549,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.862339991862987</v>
+        <v>0.696079681861328</v>
       </c>
       <c r="D9" t="n">
-        <v>2.19860151958886</v>
+        <v>2.36190157387868</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00358466733818677</v>
+        <v>0.00375667061023867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.291</v>
+        <v>0.163</v>
       </c>
       <c r="G9" t="n">
-        <v>0.291</v>
+        <v>0.163</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -2299,22 +2575,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.29085547370209</v>
+        <v>1.13432023422311</v>
       </c>
       <c r="D10" t="n">
-        <v>3.39280270926176</v>
+        <v>4.07771974381369</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00640753259674901</v>
+        <v>0.00750545578526824</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2595,4 +2871,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.09044267364806</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.63621722501168</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0225229524816264</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.9475758596212</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.9724839468969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00962878520941785</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.78774524514324</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.4234901874747</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0286556558182432</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.38255045604524</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.42895959202547</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0173638783738512</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.32754952839932</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.3375941827764</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0263393232402613</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.9123260043815</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.8248210894497</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0294012976967304</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.900748445842193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.82113323832581</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00656459821002101</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.829809800308965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.55133878996168</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00410256693847038</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.36191323452926</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.4169060266744</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00815133531646655</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>